--- a/Reproducibility_Package/Excel_Files/internationaltaxdatasheet.xlsx
+++ b/Reproducibility_Package/Excel_Files/internationaltaxdatasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/ujbilgra_syr_edu/Documents/Stata Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/kesarrge_syr_edu/Documents/ECN 310/course-project-taxes-tariffs/Reproducibility_Package/Excel_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76595570-6791-40CE-BA61-EE61F19CC3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{76595570-6791-40CE-BA61-EE61F19CC3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6D1DE6C-E7A2-433C-BF84-AB5AE44E6D62}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21750" windowHeight="10740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,111 +29,6 @@
     <t>Indicator Name</t>
   </si>
   <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -714,16 +609,127 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>yr1988</t>
+  </si>
+  <si>
+    <t>yr1989</t>
+  </si>
+  <si>
+    <t>yr1990</t>
+  </si>
+  <si>
+    <t>yr1991</t>
+  </si>
+  <si>
+    <t>yr1992</t>
+  </si>
+  <si>
+    <t>yr1993</t>
+  </si>
+  <si>
+    <t>yr1994</t>
+  </si>
+  <si>
+    <t>yr1995</t>
+  </si>
+  <si>
+    <t>yr1996</t>
+  </si>
+  <si>
+    <t>yr1997</t>
+  </si>
+  <si>
+    <t>yr1998</t>
+  </si>
+  <si>
+    <t>yr1999</t>
+  </si>
+  <si>
+    <t>yr2000</t>
+  </si>
+  <si>
+    <t>yr2001</t>
+  </si>
+  <si>
+    <t>yr2002</t>
+  </si>
+  <si>
+    <t>yr2003</t>
+  </si>
+  <si>
+    <t>yr2004</t>
+  </si>
+  <si>
+    <t>yr2005</t>
+  </si>
+  <si>
+    <t>yr2006</t>
+  </si>
+  <si>
+    <t>yr2007</t>
+  </si>
+  <si>
+    <t>yr2008</t>
+  </si>
+  <si>
+    <t>yr2009</t>
+  </si>
+  <si>
+    <t>yr2010</t>
+  </si>
+  <si>
+    <t>yr2011</t>
+  </si>
+  <si>
+    <t>yr2012</t>
+  </si>
+  <si>
+    <t>yr2013</t>
+  </si>
+  <si>
+    <t>yr2014</t>
+  </si>
+  <si>
+    <t>yr2015</t>
+  </si>
+  <si>
+    <t>yr2016</t>
+  </si>
+  <si>
+    <t>yr2017</t>
+  </si>
+  <si>
+    <t>yr2018</t>
+  </si>
+  <si>
+    <t>yr2019</t>
+  </si>
+  <si>
+    <t>yr2020</t>
+  </si>
+  <si>
+    <t>yr2021</t>
+  </si>
+  <si>
+    <t>yr2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1067,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,117 +1097,117 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="U2">
         <v>11.185519988613301</v>
@@ -1242,10 +1248,10 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>13.7832404087301</v>
@@ -1304,26 +1310,26 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>1.9943370746875599</v>
@@ -1391,18 +1397,18 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>14.2206640313997</v>
@@ -1503,10 +1509,10 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <v>3.1556818210153899</v>
@@ -1565,18 +1571,18 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>4.5404807426379499</v>
@@ -1683,10 +1689,10 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1.5617426894286199</v>
@@ -1766,10 +1772,10 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>50.844687557326999</v>
@@ -1834,10 +1840,10 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>64.659843467790495</v>
@@ -1938,10 +1944,10 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>8.5483055134041503</v>
@@ -1997,10 +2003,10 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="P16">
         <v>31.0618016199126</v>
@@ -2068,10 +2074,10 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>9.1176921224856091</v>
@@ -2118,10 +2124,10 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>4.4067796610169498</v>
@@ -2213,18 +2219,18 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>48.820859540195798</v>
@@ -2313,26 +2319,26 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0.25546409310246898</v>
@@ -2436,10 +2442,10 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>9.7879735835940203</v>
@@ -2504,10 +2510,10 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="T25">
         <v>26.352053784280699</v>
@@ -2551,10 +2557,10 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>12.937048760247899</v>
@@ -2628,10 +2634,10 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Y27">
         <v>1.87063532805955</v>
@@ -2672,18 +2678,18 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>1.77861094600155</v>
@@ -2754,10 +2760,10 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Q30">
         <v>12.7148917643852</v>
@@ -2822,10 +2828,10 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>16.2249942002605</v>
@@ -2857,10 +2863,10 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Q32">
         <v>22.362710454988399</v>
@@ -2925,10 +2931,10 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>15.5422644192563</v>
@@ -2987,10 +2993,10 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>3.0875173067113599</v>
@@ -3091,10 +3097,10 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="T35">
         <v>9.4653808288321206E-2</v>
@@ -3138,18 +3144,18 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="S37">
         <v>19.442798142240299</v>
@@ -3166,18 +3172,18 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>8.6636049645120892</v>
@@ -3284,10 +3290,10 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="T40">
         <v>-15.841694862191501</v>
@@ -3343,10 +3349,10 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M41">
         <v>6.4453014482657602</v>
@@ -3405,26 +3411,26 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="P44">
         <v>6.8697445660796399</v>
@@ -3477,10 +3483,10 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>34.211126310989499</v>
@@ -3587,10 +3593,10 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J46">
         <v>58.332601247474301</v>
@@ -3661,10 +3667,10 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F47">
         <v>3.4409340659340599</v>
@@ -3753,18 +3759,18 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>17.2203971927729</v>
@@ -3868,10 +3874,10 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>3.9415804256491098</v>
@@ -3912,10 +3918,10 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>6.0071236651289703E-2</v>
@@ -3959,26 +3965,26 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>40.3119851515088</v>
@@ -4085,10 +4091,10 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Y55">
         <v>0.20580474345456901</v>
@@ -4129,10 +4135,10 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AB56">
         <v>8.7954812098312107</v>
@@ -4164,10 +4170,10 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>13.037668944961201</v>
@@ -4244,10 +4250,10 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M58">
         <v>7.9959667254852498</v>
@@ -4324,18 +4330,18 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F60">
         <v>0.79982706441850304</v>
@@ -4379,18 +4385,18 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>14.328235331370101</v>
@@ -4485,18 +4491,18 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>31.634697436278</v>
@@ -4576,10 +4582,10 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>1.0731444152019101</v>
@@ -4638,10 +4644,10 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M66">
         <v>27.3480816316461</v>
@@ -4676,10 +4682,10 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>1.8814596076777101E-2</v>
@@ -4780,18 +4786,18 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AA69">
         <v>15.587270812354101</v>
@@ -4820,10 +4826,10 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>32.4396782841823</v>
@@ -4831,10 +4837,10 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J71">
         <v>2.1284982262514802</v>
@@ -4920,18 +4926,18 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>34.720299863086503</v>
@@ -5008,10 +5014,10 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>0.15262894483705899</v>
@@ -5088,26 +5094,26 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E77">
         <v>18.983928456170801</v>
@@ -5208,10 +5214,10 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>38.278075158400704</v>
@@ -5225,10 +5231,10 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AF79">
         <v>18.0291969876107</v>
@@ -5239,18 +5245,18 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="R81">
         <v>6.1438298528578601</v>
@@ -5297,18 +5303,18 @@
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>5.4310672236992001</v>
@@ -5382,10 +5388,10 @@
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>9.9679021875132996</v>
@@ -5492,10 +5498,10 @@
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <v>28.3426583458862</v>
@@ -5593,10 +5599,10 @@
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C86">
         <v>5.5961474593158398</v>
@@ -5691,10 +5697,10 @@
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C87">
         <v>12.1724397590361</v>
@@ -5765,10 +5771,10 @@
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AC88">
         <v>0.54077031470173798</v>
@@ -5791,18 +5797,18 @@
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C90">
         <v>3.1019959074727899</v>
@@ -5909,10 +5915,10 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>3.7990217519134603E-2</v>
@@ -5923,10 +5929,10 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>16.833937614801499</v>
@@ -6030,10 +6036,10 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F93">
         <v>1.1311202854420801</v>
@@ -6047,10 +6053,10 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <v>21.701495654595501</v>
@@ -6148,10 +6154,10 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="L95">
         <v>3.3071293033342402</v>
@@ -6216,10 +6222,10 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AC96">
         <v>7.8433381835878802</v>
@@ -6245,10 +6251,10 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Z97">
         <v>17.3883145953534</v>
@@ -6286,10 +6292,10 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>14.0437982090611</v>
@@ -6396,10 +6402,10 @@
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>2.02182284980745</v>
@@ -6428,10 +6434,10 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AC100">
         <v>10.7622040814075</v>
@@ -6460,18 +6466,18 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>4.4643197681071003</v>
@@ -6554,10 +6560,10 @@
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="L103">
         <v>45.5233379648934</v>
@@ -6637,10 +6643,10 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C104">
         <v>41.990367091903202</v>
@@ -6744,18 +6750,18 @@
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F106">
         <v>0.69680680059512701</v>
@@ -6799,10 +6805,10 @@
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G107">
         <v>5.4121632957909499E-4</v>
@@ -6816,18 +6822,18 @@
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E109">
         <v>54.6821305841924</v>
@@ -6907,10 +6913,10 @@
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="X110">
         <v>6.5282010111894699</v>
@@ -6954,10 +6960,10 @@
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="K111">
         <v>12.1456872904602</v>
@@ -7040,10 +7046,10 @@
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>35.636627204638799</v>
@@ -7114,10 +7120,10 @@
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="O113">
         <v>11.3333992566694</v>
@@ -7185,10 +7191,10 @@
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C114">
         <v>22.378429194085999</v>
@@ -7262,18 +7268,18 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>49.067532778542798</v>
@@ -7380,10 +7386,10 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>3.2700057570523899</v>
@@ -7469,10 +7475,10 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="W118">
         <v>6.6239869631635004</v>
@@ -7516,10 +7522,10 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="K119">
         <v>4.7259079135169397</v>
@@ -7602,10 +7608,10 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G120">
         <v>14.6422797089733</v>
@@ -7694,18 +7700,18 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E122">
         <v>19.1390665266775</v>
@@ -7797,10 +7803,10 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Y123">
         <v>4.6840511025488496</v>
@@ -7841,10 +7847,10 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C124">
         <v>15.1229568546606</v>
@@ -7927,10 +7933,10 @@
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E125">
         <v>25.285237407204399</v>
@@ -8031,10 +8037,10 @@
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E126">
         <v>25.628645004923101</v>
@@ -8135,10 +8141,10 @@
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J127">
         <v>3.9279415275841598E-2</v>
@@ -8206,18 +8212,18 @@
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>2.0272023125671699</v>
@@ -8288,10 +8294,10 @@
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E130">
         <v>18.916246607212098</v>
@@ -8392,26 +8398,26 @@
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="T133">
         <v>5.3336158263986899</v>
@@ -8467,10 +8473,10 @@
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>0.55673177826463205</v>
@@ -8577,10 +8583,10 @@
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="T135">
         <v>20.0187480538473</v>
@@ -8636,18 +8642,18 @@
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C137">
         <v>30.348358037311499</v>
@@ -8670,10 +8676,10 @@
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="W138">
         <v>10.659793581069099</v>
@@ -8717,10 +8723,10 @@
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AC139">
         <v>5.5651274790841603</v>
@@ -8749,10 +8755,10 @@
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E140">
         <v>19.548345100395601</v>
@@ -8817,10 +8823,10 @@
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="T141">
         <v>8.3947939262472904</v>
@@ -8876,10 +8882,10 @@
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C142">
         <v>14.392059553349901</v>
@@ -8986,10 +8992,10 @@
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E143">
         <v>24.729515617926701</v>
@@ -9090,10 +9096,10 @@
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C144">
         <v>6.2571506401525498</v>
@@ -9134,10 +9140,10 @@
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>3.5845451099704002</v>
@@ -9175,18 +9181,18 @@
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E147">
         <v>0.541711809317443</v>
@@ -9287,10 +9293,10 @@
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M148">
         <v>6.8942056922553601</v>
@@ -9367,10 +9373,10 @@
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E149">
         <v>20.489402033430999</v>
@@ -9405,10 +9411,10 @@
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AA150">
         <v>6.6249805405599096</v>
@@ -9443,18 +9449,18 @@
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Y152">
         <v>1.6433315831458299</v>
@@ -9492,10 +9498,10 @@
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AD153">
         <v>10.3997840879048</v>
@@ -9515,10 +9521,10 @@
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="V154">
         <v>6.2755205603739803</v>
@@ -9568,10 +9574,10 @@
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C155">
         <v>50.606435643564403</v>
@@ -9654,18 +9660,18 @@
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C157">
         <v>2.7424942263279402</v>
@@ -9730,10 +9736,10 @@
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J158">
         <v>3.5179399107846301</v>
@@ -9819,10 +9825,10 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G159">
         <v>8.0069067587567506</v>
@@ -9845,10 +9851,10 @@
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Z160">
         <v>30.0655537553295</v>
@@ -9883,10 +9889,10 @@
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C161">
         <v>5.8958765944823499</v>
@@ -9993,10 +9999,10 @@
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C162">
         <v>2.4625013311925001</v>
@@ -10022,10 +10028,10 @@
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E163">
         <v>26.019749233170099</v>
@@ -10126,10 +10132,10 @@
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E164">
         <v>50.260174688719601</v>
@@ -10206,10 +10212,10 @@
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="O165">
         <v>47.380941252357097</v>
@@ -10268,10 +10274,10 @@
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E166">
         <v>36.127508854781603</v>
@@ -10360,18 +10366,18 @@
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C168">
         <v>0.57773109243697496</v>
@@ -10397,10 +10403,10 @@
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E169">
         <v>2.1971527054050499</v>
@@ -10501,18 +10507,18 @@
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M171">
         <v>11.9325137595801</v>
@@ -10538,10 +10544,10 @@
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="X172">
         <v>5.2151926870740803</v>
@@ -10576,10 +10582,10 @@
     </row>
     <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C173">
         <v>22.337539162410302</v>
@@ -10686,10 +10692,10 @@
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="S174">
         <v>20.0476537782482</v>
@@ -10742,18 +10748,18 @@
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="P176">
         <v>5.4390028383227103</v>
@@ -10812,10 +10818,10 @@
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C177">
         <v>26.490210297316899</v>
@@ -10895,10 +10901,10 @@
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C178">
         <v>6.60264654605733</v>
@@ -10978,34 +10984,34 @@
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="AD182">
         <v>9.3974517611616299</v>
@@ -11031,10 +11037,10 @@
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="N183">
         <v>4.1069959115436303</v>
@@ -11108,10 +11114,10 @@
     </row>
     <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Z184">
         <v>8.8763523552056103E-3</v>
@@ -11149,10 +11155,10 @@
     </row>
     <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C185">
         <v>4.1927716616553101E-3</v>
@@ -11178,10 +11184,10 @@
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C186">
         <v>1.72143324641325</v>
@@ -11288,10 +11294,10 @@
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C187">
         <v>10.4310657603171</v>
@@ -11395,10 +11401,10 @@
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="Z188">
         <v>6.7051316142855404</v>
@@ -11433,10 +11439,10 @@
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E189">
         <v>56.498049656368003</v>
@@ -11495,34 +11501,34 @@
     </row>
     <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E193">
         <v>17.1580042821438</v>
@@ -11620,10 +11626,10 @@
     </row>
     <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="X194">
         <v>41.732472863660597</v>
@@ -11651,6 +11657,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>